--- a/coding-label-frequencies.xlsx
+++ b/coding-label-frequencies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspace\phd\research-microservices-evolvability-interviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2790C6AA-9EE5-4221-B550-53F1411BFE06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF17214-6975-45F7-A096-6FE86CA1D538}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,19 @@
     <sheet name="Influences on Evolvability" sheetId="7" r:id="rId8"/>
     <sheet name="Sentiments" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="130">
   <si>
     <t/>
   </si>
@@ -165,36 +172,21 @@
     <t>No System-Centric View</t>
   </si>
   <si>
-    <t>Heterogeneous Technologies</t>
-  </si>
-  <si>
-    <t>Mastering DevOps &amp; Microservices Technologies</t>
-  </si>
-  <si>
     <t>Inter-Service Dependencies / Ripples</t>
   </si>
   <si>
     <t>Architectural / Technical Complexity</t>
   </si>
   <si>
-    <t>Healthy Metric Usage</t>
-  </si>
-  <si>
     <t>Missing / Outdated Documentation</t>
   </si>
   <si>
-    <t>Coordination Between Teams</t>
-  </si>
-  <si>
     <t>Inadequate Testing</t>
   </si>
   <si>
     <t>Integrating Legacy Code</t>
   </si>
   <si>
-    <t>Communicate Importance of Assurance</t>
-  </si>
-  <si>
     <t>Microservices Integration</t>
   </si>
   <si>
@@ -417,16 +409,22 @@
     <t>Positive</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
+    <t>Mastering Technologies</t>
+  </si>
+  <si>
+    <t>Normalized SUM</t>
+  </si>
+  <si>
+    <t>Unhealthy Metric Usage</t>
+  </si>
+  <si>
+    <t>Technological Heterogeneity</t>
+  </si>
+  <si>
+    <t>Coordination Between Decentralized Teams</t>
+  </si>
+  <si>
+    <t>Communicating the Importance of Assurance</t>
   </si>
 </sst>
 </file>
@@ -501,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -516,6 +514,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -533,6 +534,3944 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Challenges!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normalized SUM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Service Cutting</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No System-Centric View</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mastering Technologies</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Technological Heterogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Missing / Outdated Documentation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Inter-Service Dependencies / Ripples</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Architectural / Technical Complexity</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Unhealthy Metric Usage</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Integrating Legacy Code</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Coordination Between Decentralized Teams</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Inadequate Testing</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Communicating the Importance of Assurance</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Microservices Integration</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Tool/Process Frustration and Patronization</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Breaking API Changes</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Distributed Code Repositories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Challenges!$B$20:$Y$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Challenges!$B$20:$N$20,Challenges!$P$20:$Q$20,Challenges!$S$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-5F85-4799-9160-E86E5FB468F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="507707072"/>
+        <c:axId val="507707400"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #01</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$2:$Y$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$2:$N$2,Challenges!$P$2:$Q$2,Challenges!$S$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #02</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$3:$Y$3</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$3:$N$3,Challenges!$P$3:$Q$3,Challenges!$S$3)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #03</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$4:$Y$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$4:$N$4,Challenges!$P$4:$Q$4,Challenges!$S$4)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #04</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$5:$Y$5</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$5:$N$5,Challenges!$P$5:$Q$5,Challenges!$S$5)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #05</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$6:$Y$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$6:$N$6,Challenges!$P$6:$Q$6,Challenges!$S$6)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #06</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$7:$Y$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$7:$N$7,Challenges!$P$7:$Q$7,Challenges!$S$7)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #07</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$8:$Y$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$8:$N$8,Challenges!$P$8:$Q$8,Challenges!$S$8)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #08</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$9:$Y$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$9:$N$9,Challenges!$P$9:$Q$9,Challenges!$S$9)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #09</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$10:$Y$10</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$10:$N$10,Challenges!$P$10:$Q$10,Challenges!$S$10)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #10</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$11:$Y$11</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$11:$N$11,Challenges!$P$11:$Q$11,Challenges!$S$11)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #11</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$12:$Y$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$12:$N$12,Challenges!$P$12:$Q$12,Challenges!$S$12)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #12</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$13:$Y$13</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$13:$N$13,Challenges!$P$13:$Q$13,Challenges!$S$13)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #13</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$14:$Y$14</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$14:$N$14,Challenges!$P$14:$Q$14,Challenges!$S$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #14</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$15:$Y$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$15:$N$15,Challenges!$P$15:$Q$15,Challenges!$S$15)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$16:$Y$16</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$16:$N$16,Challenges!$P$16:$Q$16,Challenges!$S$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #16</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$17:$Y$17</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$17:$N$17,Challenges!$P$17:$Q$17,Challenges!$S$17)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="16"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Challenges!$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Participant #17</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$1:$Y$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$1:$N$1,Challenges!$P$1:$Q$1,Challenges!$S$1)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>Service Cutting</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>No System-Centric View</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Mastering Technologies</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Technological Heterogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Missing / Outdated Documentation</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Inter-Service Dependencies / Ripples</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Architectural / Technical Complexity</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Unhealthy Metric Usage</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Integrating Legacy Code</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Coordination Between Decentralized Teams</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Inadequate Testing</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Communicating the Importance of Assurance</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Microservices Integration</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>Tool/Process Frustration and Patronization</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>Breaking API Changes</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>Distributed Code Repositories</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Challenges!$B$18:$Y$18</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Challenges!$B$18:$N$18,Challenges!$P$18:$Q$18,Challenges!$S$18)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>@</c:formatCode>
+                      <c:ptCount val="16"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-5F85-4799-9160-E86E5FB468F3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="507707072"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Challenge</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507707400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507707400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.60833346181377679"/>
+              <c:y val="1.5275507261965842E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507707072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EA47AE-CE07-4A80-B153-3D2A3F42C360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1505,82 +5444,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -3109,37 +7048,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3861,46 +7800,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -5389,7 +9328,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595AEFA2-097C-4D41-9AB9-AA0053740600}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5398,15 +9337,15 @@
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.140625" bestFit="1" customWidth="1"/>
@@ -5433,70 +9372,70 @@
         <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -5605,13 +9544,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
       </c>
       <c r="L3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
         <v>0</v>
@@ -5664,22 +9603,22 @@
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -5741,11 +9680,11 @@
         <v>1</v>
       </c>
       <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
       <c r="F5" s="4">
         <v>0</v>
       </c>
@@ -5759,10 +9698,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -5818,31 +9757,31 @@
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -5895,13 +9834,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -5910,16 +9849,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -5978,16 +9917,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
@@ -6055,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -6064,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
@@ -6126,22 +10065,22 @@
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
@@ -6203,31 +10142,31 @@
         <v>1</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
         <v>2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>2</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -6286,25 +10225,25 @@
         <v>0</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
         <v>3</v>
       </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
       <c r="I12" s="4">
         <v>0</v>
       </c>
       <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
         <v>2</v>
       </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
       <c r="L12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -6357,11 +10296,11 @@
         <v>0</v>
       </c>
       <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
       <c r="F13" s="4">
         <v>0</v>
       </c>
@@ -6369,10 +10308,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
@@ -6452,13 +10391,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
@@ -6511,10 +10450,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -6523,19 +10462,19 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -6588,28 +10527,28 @@
         <v>0</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
       <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
         <v>3</v>
       </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
       <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
         <v>2</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
       </c>
       <c r="L16" s="4">
         <v>0</v>
@@ -6665,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -6742,10 +10681,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -6754,10 +10693,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="4">
         <v>0</v>
@@ -6819,16 +10758,16 @@
         <v>14</v>
       </c>
       <c r="D19" s="4">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
         <v>13</v>
       </c>
-      <c r="E19" s="4">
-        <v>12</v>
-      </c>
       <c r="F19" s="4">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4">
         <v>8</v>
-      </c>
-      <c r="G19" s="4">
-        <v>6</v>
       </c>
       <c r="H19" s="4">
         <v>6</v>
@@ -6837,10 +10776,10 @@
         <v>6</v>
       </c>
       <c r="J19" s="4">
+        <v>4</v>
+      </c>
+      <c r="K19" s="4">
         <v>5</v>
-      </c>
-      <c r="K19" s="4">
-        <v>4</v>
       </c>
       <c r="L19" s="4">
         <v>4</v>
@@ -6885,8 +10824,110 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="6">
+        <f>COUNTIF(B2:B18, "&lt;&gt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" ref="C20:Y20" si="0">COUNTIF(C2:C18, "&lt;&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E20" s="6">
+        <f>COUNTIF(E2:E18, "&lt;&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="F20" s="6">
+        <f>COUNTIF(F2:F18, "&lt;&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="6">
+        <f>COUNTIF(J2:J18, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R20" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="S20" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T20" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="U20" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V20" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W20" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X20" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7431,28 +11472,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -8001,13 +12042,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4">
